--- a/pred_ohlcv/54_23/2020-01-16 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2020-01-16 AOA ohlcv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>open</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t>OBV</t>
   </si>
   <si>
     <t>trade_state</t>
@@ -386,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F512"/>
+  <dimension ref="A1:G512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +411,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -426,10 +432,13 @@
         <v>1.803</v>
       </c>
       <c r="F2">
+        <v>2534062.76</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -446,10 +455,13 @@
         <v>1.803</v>
       </c>
       <c r="F3">
+        <v>3580945.88</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -466,10 +478,13 @@
         <v>1.801</v>
       </c>
       <c r="F4">
+        <v>255928.4401</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -486,10 +501,13 @@
         <v>1.799</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>318616.1959</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -506,10 +524,13 @@
         <v>1.795</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>293718.7217</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -526,10 +547,13 @@
         <v>1.795</v>
       </c>
       <c r="F7">
+        <v>39068.6098</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -546,10 +570,13 @@
         <v>1.795</v>
       </c>
       <c r="F8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>300</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -566,10 +593,13 @@
         <v>1.792</v>
       </c>
       <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>67284.2187</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -586,10 +616,13 @@
         <v>1.773</v>
       </c>
       <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>426905.3335</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -606,10 +639,13 @@
         <v>1.773</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>188554.0644</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -626,10 +662,13 @@
         <v>1.75</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>1775347.5845</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -646,10 +685,13 @@
         <v>1.719</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>3260635.88</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -666,10 +708,13 @@
         <v>1.719</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>2281935.88</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -686,10 +731,13 @@
         <v>1.731</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>545831.3611</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -706,10 +754,13 @@
         <v>1.718</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>122178.4253</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -726,10 +777,13 @@
         <v>1.748</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>3000</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -746,10 +800,13 @@
         <v>1.72</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>68586.9005</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -766,10 +823,13 @@
         <v>1.721</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>2794919.76</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -786,10 +846,13 @@
         <v>1.72</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>1215291.7334</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -806,10 +869,13 @@
         <v>1.72</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>1000</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -826,10 +892,13 @@
         <v>1.72</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>1695131.4842</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -846,10 +915,13 @@
         <v>1.722</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>2617025.88</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -866,10 +938,13 @@
         <v>1.74</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>742442.5992000001</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -886,10 +961,13 @@
         <v>1.748</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>244217.3719</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -906,10 +984,13 @@
         <v>1.748</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>1000</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -926,10 +1007,13 @@
         <v>1.73</v>
       </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>38475.5902</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -946,10 +1030,13 @@
         <v>1.73</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>1000</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -966,10 +1053,13 @@
         <v>1.73</v>
       </c>
       <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>72669.2144</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -986,10 +1076,13 @@
         <v>1.725</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>1614028.88</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1006,10 +1099,13 @@
         <v>1.725</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>79250.3673</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1026,10 +1122,13 @@
         <v>1.725</v>
       </c>
       <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>75684.24950000001</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1046,10 +1145,13 @@
         <v>1.725</v>
       </c>
       <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>881906.8159</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1066,10 +1168,13 @@
         <v>1.732</v>
       </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>40820.4206</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1086,10 +1191,13 @@
         <v>1.732</v>
       </c>
       <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>191709.1154</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1106,10 +1214,13 @@
         <v>1.732</v>
       </c>
       <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>500</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1126,10 +1237,13 @@
         <v>1.732</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>364115.1697</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1146,10 +1260,13 @@
         <v>1.726</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>2962593.88</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1166,10 +1283,13 @@
         <v>1.726</v>
       </c>
       <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>3390010.88</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1186,10 +1306,13 @@
         <v>1.727</v>
       </c>
       <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>530100</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1206,10 +1329,13 @@
         <v>1.74</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>300</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1226,10 +1352,13 @@
         <v>1.729</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>780.4788</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1246,10 +1375,13 @@
         <v>1.73</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>300</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1266,10 +1398,13 @@
         <v>1.729</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>5856.7755</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1286,10 +1421,13 @@
         <v>1.726</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>133712.1114</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1306,10 +1444,13 @@
         <v>1.729</v>
       </c>
       <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>144587.5248</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1326,10 +1467,13 @@
         <v>1.73</v>
       </c>
       <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>27204.6473</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1346,10 +1490,13 @@
         <v>1.727</v>
       </c>
       <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>8709.6096</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1366,10 +1513,13 @@
         <v>1.726</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>171417.9527</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1386,10 +1536,13 @@
         <v>1.726</v>
       </c>
       <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>122350.4622</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1406,10 +1559,13 @@
         <v>1.723</v>
       </c>
       <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>1416</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1426,10 +1582,13 @@
         <v>1.726</v>
       </c>
       <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>29777.05</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1446,10 +1605,13 @@
         <v>1.726</v>
       </c>
       <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>14726.2816</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1466,10 +1628,13 @@
         <v>1.726</v>
       </c>
       <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>44503.3316</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1486,10 +1651,13 @@
         <v>1.73</v>
       </c>
       <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>89371.04210000001</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1506,10 +1674,13 @@
         <v>1.728</v>
       </c>
       <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>2158129.88</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1526,10 +1697,13 @@
         <v>1.747</v>
       </c>
       <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>878772.5609</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1546,10 +1720,13 @@
         <v>1.749</v>
       </c>
       <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>256002.0803</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1566,10 +1743,13 @@
         <v>1.749</v>
       </c>
       <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>28796.1893</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1586,10 +1766,13 @@
         <v>1.756</v>
       </c>
       <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>2139540.0238</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1606,10 +1789,13 @@
         <v>1.824</v>
       </c>
       <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>300</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1626,10 +1812,13 @@
         <v>1.824</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>160255.2175</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1646,10 +1835,13 @@
         <v>1.831</v>
       </c>
       <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>2234378.76</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1666,10 +1858,13 @@
         <v>1.867</v>
       </c>
       <c r="F64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>500</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1686,10 +1881,13 @@
         <v>1.781</v>
       </c>
       <c r="F65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>678735.12</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1706,10 +1904,13 @@
         <v>1.73</v>
       </c>
       <c r="F66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>550000</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1726,10 +1927,13 @@
         <v>1.77</v>
       </c>
       <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>300</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1746,10 +1950,13 @@
         <v>1.77</v>
       </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>653771.269</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1766,10 +1973,13 @@
         <v>1.806</v>
       </c>
       <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>1554956.1538</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1786,10 +1996,13 @@
         <v>1.814</v>
       </c>
       <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>4275986.7356</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1806,10 +2019,13 @@
         <v>1.792</v>
       </c>
       <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>2806815.88</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1826,10 +2042,13 @@
         <v>1.86</v>
       </c>
       <c r="F72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>1494854.5922</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1846,10 +2065,13 @@
         <v>1.82</v>
       </c>
       <c r="F73">
+        <v>12377.8774</v>
+      </c>
+      <c r="G73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1866,10 +2088,13 @@
         <v>1.84</v>
       </c>
       <c r="F74">
+        <v>1012377.8774</v>
+      </c>
+      <c r="G74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1886,10 +2111,13 @@
         <v>1.84</v>
       </c>
       <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>400000</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1906,10 +2134,13 @@
         <v>1.84</v>
       </c>
       <c r="F76">
+        <v>28860.2684</v>
+      </c>
+      <c r="G76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1926,10 +2157,13 @@
         <v>1.781</v>
       </c>
       <c r="F77">
+        <v>2182734.88</v>
+      </c>
+      <c r="G77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1946,10 +2180,13 @@
         <v>1.752</v>
       </c>
       <c r="F78">
+        <v>3632396.41</v>
+      </c>
+      <c r="G78">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1966,10 +2203,13 @@
         <v>1.762</v>
       </c>
       <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>1911674.88</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1986,10 +2226,13 @@
         <v>1.781</v>
       </c>
       <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>898531</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2006,10 +2249,13 @@
         <v>1.781</v>
       </c>
       <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>2486705.76</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2026,10 +2272,13 @@
         <v>1.781</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>2119385.26</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2046,10 +2295,13 @@
         <v>1.791</v>
       </c>
       <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>624746.5</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2066,10 +2318,13 @@
         <v>1.83</v>
       </c>
       <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>1015.4449</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2086,10 +2341,13 @@
         <v>1.831</v>
       </c>
       <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>253403</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2106,10 +2364,13 @@
         <v>1.781</v>
       </c>
       <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>2079047.38</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2126,10 +2387,13 @@
         <v>1.781</v>
       </c>
       <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>2209825.4737</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2146,10 +2410,13 @@
         <v>1.791</v>
       </c>
       <c r="F88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>3201807.88</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2166,10 +2433,13 @@
         <v>1.793</v>
       </c>
       <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>497966.5313</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2186,10 +2456,13 @@
         <v>1.764</v>
       </c>
       <c r="F90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>2542725.88</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2206,10 +2479,13 @@
         <v>1.764</v>
       </c>
       <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>2540869.88</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2226,10 +2502,13 @@
         <v>1.771</v>
       </c>
       <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>2975315</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2246,10 +2525,13 @@
         <v>1.752</v>
       </c>
       <c r="F93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>1449234.88</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2266,10 +2548,13 @@
         <v>1.751</v>
       </c>
       <c r="F94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>2838667.71</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2286,10 +2571,13 @@
         <v>1.764</v>
       </c>
       <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>2666782.88</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2306,10 +2594,13 @@
         <v>1.762</v>
       </c>
       <c r="F96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>2168342.88</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2326,10 +2617,13 @@
         <v>1.755</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>3147356.88</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2346,10 +2640,13 @@
         <v>1.771</v>
       </c>
       <c r="F98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>2018121.88</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2366,10 +2663,13 @@
         <v>1.77</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>459.9466</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2386,10 +2686,13 @@
         <v>1.773</v>
       </c>
       <c r="F100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>1605368</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2406,10 +2709,13 @@
         <v>1.773</v>
       </c>
       <c r="F101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>1271034.0233</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2426,10 +2732,13 @@
         <v>1.774</v>
       </c>
       <c r="F102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>1467141.88</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2446,10 +2755,13 @@
         <v>1.789</v>
       </c>
       <c r="F103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>6103.6804</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2466,10 +2778,13 @@
         <v>1.781</v>
       </c>
       <c r="F104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>1467613</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2486,10 +2801,13 @@
         <v>1.78</v>
       </c>
       <c r="F105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>982.9008</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2506,10 +2824,13 @@
         <v>1.781</v>
       </c>
       <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>744273</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2526,10 +2847,13 @@
         <v>1.781</v>
       </c>
       <c r="F107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>767452.88</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2546,10 +2870,13 @@
         <v>1.78</v>
       </c>
       <c r="F108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>25915.0489</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2566,10 +2893,13 @@
         <v>1.775</v>
       </c>
       <c r="F109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>435777.0913</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2586,10 +2916,13 @@
         <v>1.775</v>
       </c>
       <c r="F110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>225401.9923</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2606,10 +2939,13 @@
         <v>1.789</v>
       </c>
       <c r="F111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>174261.9248</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2626,10 +2962,13 @@
         <v>1.781</v>
       </c>
       <c r="F112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>753185</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2646,10 +2985,13 @@
         <v>1.775</v>
       </c>
       <c r="F113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>403805.2907</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2666,10 +3008,13 @@
         <v>1.774</v>
       </c>
       <c r="F114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>680216.3132</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2686,10 +3031,13 @@
         <v>1.781</v>
       </c>
       <c r="F115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>435710.275</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2706,10 +3054,13 @@
         <v>1.78</v>
       </c>
       <c r="F116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>53513.763</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2726,10 +3077,13 @@
         <v>1.78</v>
       </c>
       <c r="F117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>1560401.6729</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2746,10 +3100,13 @@
         <v>1.781</v>
       </c>
       <c r="F118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>2971067.76</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2766,10 +3123,13 @@
         <v>1.781</v>
       </c>
       <c r="F119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>2817774.88</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2786,10 +3146,13 @@
         <v>1.78</v>
       </c>
       <c r="F120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>6564.6852</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2806,10 +3169,13 @@
         <v>1.78</v>
       </c>
       <c r="F121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>24083.4361</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2826,10 +3192,13 @@
         <v>1.781</v>
       </c>
       <c r="F122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>785127</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2846,10 +3215,13 @@
         <v>1.781</v>
       </c>
       <c r="F123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>3107288.88</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2866,10 +3238,13 @@
         <v>1.781</v>
       </c>
       <c r="F124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>3270012.88</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2886,10 +3261,13 @@
         <v>1.781</v>
       </c>
       <c r="F125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>708409.88</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2906,10 +3284,13 @@
         <v>1.8</v>
       </c>
       <c r="F126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>46009.5261</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2926,10 +3307,13 @@
         <v>1.807</v>
       </c>
       <c r="F127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>280</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2946,10 +3330,13 @@
         <v>1.807</v>
       </c>
       <c r="F128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>3637.1591</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2966,10 +3353,13 @@
         <v>1.786</v>
       </c>
       <c r="F129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>2168143.88</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2986,10 +3376,13 @@
         <v>1.786</v>
       </c>
       <c r="F130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>3655965.88</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3006,10 +3399,13 @@
         <v>1.786</v>
       </c>
       <c r="F131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>807557.88</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3026,10 +3422,13 @@
         <v>1.791</v>
       </c>
       <c r="F132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>650115</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3046,10 +3445,13 @@
         <v>1.809</v>
       </c>
       <c r="F133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>280</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3066,10 +3468,13 @@
         <v>1.809</v>
       </c>
       <c r="F134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>10000</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3086,10 +3491,13 @@
         <v>1.791</v>
       </c>
       <c r="F135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>1427749.88</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3106,10 +3514,13 @@
         <v>1.79</v>
       </c>
       <c r="F136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>620037.2187</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3126,10 +3537,13 @@
         <v>1.785</v>
       </c>
       <c r="F137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>7465.9178</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3146,10 +3560,13 @@
         <v>1.751</v>
       </c>
       <c r="F138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>2548606.7724</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3166,10 +3583,13 @@
         <v>1.761</v>
       </c>
       <c r="F139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>2972977.76</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3186,10 +3606,13 @@
         <v>1.79</v>
       </c>
       <c r="F140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>300</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3206,10 +3629,13 @@
         <v>1.763</v>
       </c>
       <c r="F141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>643.1892</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3226,10 +3652,13 @@
         <v>1.79</v>
       </c>
       <c r="F142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>795.0459</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3246,10 +3675,13 @@
         <v>1.766</v>
       </c>
       <c r="F143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>2626502.88</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3266,10 +3698,13 @@
         <v>1.766</v>
       </c>
       <c r="F144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>2846509.76</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3286,10 +3721,13 @@
         <v>1.768</v>
       </c>
       <c r="F145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>1405082.5472</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3306,10 +3744,13 @@
         <v>1.765</v>
       </c>
       <c r="F146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>344170.1955</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3326,10 +3767,13 @@
         <v>1.762</v>
       </c>
       <c r="F147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>365315.1697</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3346,10 +3790,13 @@
         <v>1.75</v>
       </c>
       <c r="F148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>2745689.0189</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3366,10 +3813,13 @@
         <v>1.75</v>
       </c>
       <c r="F149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>503197.2019</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3386,10 +3836,13 @@
         <v>1.755</v>
       </c>
       <c r="F150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>162493.6461</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3406,10 +3859,13 @@
         <v>1.75</v>
       </c>
       <c r="F151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>2101556.6731</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3426,10 +3882,13 @@
         <v>1.751</v>
       </c>
       <c r="F152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>2931874.76</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3446,10 +3905,13 @@
         <v>1.752</v>
       </c>
       <c r="F153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>1961635.88</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3466,10 +3928,13 @@
         <v>1.75</v>
       </c>
       <c r="F154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>1107093.703</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3486,10 +3951,13 @@
         <v>1.75</v>
       </c>
       <c r="F155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>481725.1119</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3506,10 +3974,13 @@
         <v>1.749</v>
       </c>
       <c r="F156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>1627484.6895</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3526,10 +3997,13 @@
         <v>1.725</v>
       </c>
       <c r="F157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>97876.04029999999</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3546,10 +4020,13 @@
         <v>1.723</v>
       </c>
       <c r="F158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>531332.9216</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3566,10 +4043,13 @@
         <v>1.612</v>
       </c>
       <c r="F159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>2156556.5897</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3586,10 +4066,13 @@
         <v>1.697</v>
       </c>
       <c r="F160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>295</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3606,10 +4089,13 @@
         <v>1.688</v>
       </c>
       <c r="F161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>359264.4174</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3626,10 +4112,13 @@
         <v>1.654</v>
       </c>
       <c r="F162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>2164645.88</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3646,10 +4135,13 @@
         <v>1.66</v>
       </c>
       <c r="F163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>2502255.2691</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3666,10 +4158,13 @@
         <v>1.654</v>
       </c>
       <c r="F164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+        <v>2921192.88</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3686,10 +4181,13 @@
         <v>1.662</v>
       </c>
       <c r="F165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>1627158.2403</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3706,10 +4204,13 @@
         <v>1.66</v>
       </c>
       <c r="F166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>514666.0085</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3726,10 +4227,13 @@
         <v>1.663</v>
       </c>
       <c r="F167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>842945.3087000001</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3746,10 +4250,13 @@
         <v>1.672</v>
       </c>
       <c r="F168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>600</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3766,10 +4273,13 @@
         <v>1.671</v>
       </c>
       <c r="F169">
+        <v>1486848.9782</v>
+      </c>
+      <c r="G169">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3786,10 +4296,13 @@
         <v>1.671</v>
       </c>
       <c r="F170">
+        <v>3826833.76</v>
+      </c>
+      <c r="G170">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3806,10 +4319,13 @@
         <v>1.671</v>
       </c>
       <c r="F171">
+        <v>3372751.9807</v>
+      </c>
+      <c r="G171">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3826,10 +4342,13 @@
         <v>1.688</v>
       </c>
       <c r="F172">
+        <v>177281.9136</v>
+      </c>
+      <c r="G172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3846,10 +4365,13 @@
         <v>1.688</v>
       </c>
       <c r="F173">
+        <v>262656.8732</v>
+      </c>
+      <c r="G173">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3866,10 +4388,13 @@
         <v>1.688</v>
       </c>
       <c r="F174">
+        <v>12148.2313</v>
+      </c>
+      <c r="G174">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3886,10 +4411,13 @@
         <v>1.652</v>
       </c>
       <c r="F175">
+        <v>3424410.2854</v>
+      </c>
+      <c r="G175">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3906,10 +4434,13 @@
         <v>1.653</v>
       </c>
       <c r="F176">
+        <v>3346857.88</v>
+      </c>
+      <c r="G176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3926,10 +4457,13 @@
         <v>1.661</v>
       </c>
       <c r="F177">
+        <v>2173951.88</v>
+      </c>
+      <c r="G177">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3946,10 +4480,13 @@
         <v>1.688</v>
       </c>
       <c r="F178">
+        <v>1172003.9993</v>
+      </c>
+      <c r="G178">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3966,10 +4503,13 @@
         <v>1.69</v>
       </c>
       <c r="F179">
+        <v>818.3231</v>
+      </c>
+      <c r="G179">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3986,10 +4526,13 @@
         <v>1.696</v>
       </c>
       <c r="F180">
+        <v>13304.8189</v>
+      </c>
+      <c r="G180">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4006,10 +4549,13 @@
         <v>1.697</v>
       </c>
       <c r="F181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+        <v>12792.5752</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4026,10 +4572,13 @@
         <v>1.709</v>
       </c>
       <c r="F182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+        <v>344</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4046,10 +4595,13 @@
         <v>1.7</v>
       </c>
       <c r="F183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+        <v>74006.4734</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4066,10 +4618,13 @@
         <v>1.701</v>
       </c>
       <c r="F184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+        <v>801544</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4086,10 +4641,13 @@
         <v>1.701</v>
       </c>
       <c r="F185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+        <v>3117140.88</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4106,10 +4664,13 @@
         <v>1.701</v>
       </c>
       <c r="F186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+        <v>3465342.0565</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4126,10 +4687,13 @@
         <v>1.739</v>
       </c>
       <c r="F187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+        <v>5000</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4146,10 +4710,13 @@
         <v>1.739</v>
       </c>
       <c r="F188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+        <v>314</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4166,10 +4733,13 @@
         <v>1.726</v>
       </c>
       <c r="F189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+        <v>3039.5369</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4186,10 +4756,13 @@
         <v>1.711</v>
       </c>
       <c r="F190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+        <v>1489035.88</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4206,10 +4779,13 @@
         <v>1.711</v>
       </c>
       <c r="F191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+        <v>2472466.76</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4226,10 +4802,13 @@
         <v>1.711</v>
       </c>
       <c r="F192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+        <v>2274285.8696</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4246,10 +4825,13 @@
         <v>1.711</v>
       </c>
       <c r="F193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+        <v>1211653</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4266,10 +4848,13 @@
         <v>1.77</v>
       </c>
       <c r="F194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>74000</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4286,10 +4871,13 @@
         <v>1.748</v>
       </c>
       <c r="F195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>58934.2675</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4306,10 +4894,13 @@
         <v>1.738</v>
       </c>
       <c r="F196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+        <v>614941.7726</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4326,10 +4917,13 @@
         <v>1.624</v>
       </c>
       <c r="F197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+        <v>3469292.0152</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4346,10 +4940,13 @@
         <v>1.629</v>
       </c>
       <c r="F198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+        <v>2851708.8838</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4366,10 +4963,13 @@
         <v>1.661</v>
       </c>
       <c r="F199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+        <v>2098753.71</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4386,10 +4986,13 @@
         <v>1.631</v>
       </c>
       <c r="F200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+        <v>2231008.161</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -4406,10 +5009,13 @@
         <v>1.735</v>
       </c>
       <c r="F201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+        <v>390574.5411</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4426,10 +5032,13 @@
         <v>1.682</v>
       </c>
       <c r="F202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+        <v>1491.3372</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4446,10 +5055,13 @@
         <v>1.7</v>
       </c>
       <c r="F203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+        <v>100000</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4466,10 +5078,13 @@
         <v>1.681</v>
       </c>
       <c r="F204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+        <v>727055</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4486,10 +5101,13 @@
         <v>1.681</v>
       </c>
       <c r="F205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+        <v>2830677.88</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4506,10 +5124,13 @@
         <v>1.681</v>
       </c>
       <c r="F206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+        <v>2405201.4634</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -4526,10 +5147,13 @@
         <v>1.681</v>
       </c>
       <c r="F207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+        <v>1264351.2966</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -4546,10 +5170,13 @@
         <v>1.699</v>
       </c>
       <c r="F208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+        <v>11000</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -4566,10 +5193,13 @@
         <v>1.736</v>
       </c>
       <c r="F209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+        <v>300</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -4586,10 +5216,13 @@
         <v>1.612</v>
       </c>
       <c r="F210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+        <v>2167741.3058</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4606,10 +5239,13 @@
         <v>1.62</v>
       </c>
       <c r="F211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+        <v>801334.7116</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4626,10 +5262,13 @@
         <v>1.635</v>
       </c>
       <c r="F212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+        <v>3513827</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4646,10 +5285,13 @@
         <v>1.653</v>
       </c>
       <c r="F213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+        <v>2951979.88</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4666,10 +5308,13 @@
         <v>1.69</v>
       </c>
       <c r="F214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+        <v>379590.8421</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4686,10 +5331,13 @@
         <v>1.736</v>
       </c>
       <c r="F215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
+        <v>25020.335</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4706,10 +5354,13 @@
         <v>1.691</v>
       </c>
       <c r="F216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
+        <v>5364.8068</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4726,10 +5377,13 @@
         <v>1.68</v>
       </c>
       <c r="F217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+        <v>11536.6491</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4746,10 +5400,13 @@
         <v>1.68</v>
       </c>
       <c r="F218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
+        <v>44564.4897</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -4766,10 +5423,13 @@
         <v>1.671</v>
       </c>
       <c r="F219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+        <v>268054.4419</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -4786,10 +5446,13 @@
         <v>1.661</v>
       </c>
       <c r="F220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+        <v>3362965.84</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4806,10 +5469,13 @@
         <v>1.671</v>
       </c>
       <c r="F221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
+        <v>3042362.88</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4826,10 +5492,13 @@
         <v>1.671</v>
       </c>
       <c r="F222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
+        <v>1335699.88</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -4846,10 +5515,13 @@
         <v>1.671</v>
       </c>
       <c r="F223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
+        <v>48415.988</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -4866,10 +5538,13 @@
         <v>1.699</v>
       </c>
       <c r="F224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
+        <v>211046</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4886,10 +5561,13 @@
         <v>1.674</v>
       </c>
       <c r="F225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
+        <v>2525919.76</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4906,10 +5584,13 @@
         <v>1.674</v>
       </c>
       <c r="F226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
+        <v>2962143.88</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -4926,10 +5607,13 @@
         <v>1.674</v>
       </c>
       <c r="F227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
+        <v>1415971.88</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -4946,10 +5630,13 @@
         <v>1.702</v>
       </c>
       <c r="F228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+        <v>11536.6491</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -4966,10 +5653,13 @@
         <v>1.706</v>
       </c>
       <c r="F229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
+        <v>2771502.396</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -4986,10 +5676,13 @@
         <v>1.713</v>
       </c>
       <c r="F230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+        <v>2780592.88</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5006,10 +5699,13 @@
         <v>1.731</v>
       </c>
       <c r="F231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+        <v>3855550.2215</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5026,10 +5722,13 @@
         <v>1.72</v>
       </c>
       <c r="F232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
+        <v>656.395</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5046,10 +5745,13 @@
         <v>1.703</v>
       </c>
       <c r="F233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
+        <v>1837780.9544</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5066,10 +5768,13 @@
         <v>1.72</v>
       </c>
       <c r="F234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
+        <v>26000</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5086,10 +5791,13 @@
         <v>1.721</v>
       </c>
       <c r="F235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
+        <v>805556.88</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5106,10 +5814,13 @@
         <v>1.721</v>
       </c>
       <c r="F236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
+        <v>982855.88</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5126,10 +5837,13 @@
         <v>1.716</v>
       </c>
       <c r="F237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
+        <v>3395330.88</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5146,10 +5860,13 @@
         <v>1.716</v>
       </c>
       <c r="F238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
+        <v>2359258.88</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5166,10 +5883,13 @@
         <v>1.718</v>
       </c>
       <c r="F239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
+        <v>1213847.199</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5186,10 +5906,13 @@
         <v>1.718</v>
       </c>
       <c r="F240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
+        <v>2816811.268</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5206,10 +5929,13 @@
         <v>1.721</v>
       </c>
       <c r="F241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
+        <v>824270</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5226,10 +5952,13 @@
         <v>1.721</v>
       </c>
       <c r="F242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
+        <v>2873714.88</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5246,10 +5975,13 @@
         <v>1.75</v>
       </c>
       <c r="F243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
+        <v>2852.9703</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -5266,10 +5998,13 @@
         <v>1.74</v>
       </c>
       <c r="F244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
+        <v>2012.2796</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -5286,10 +6021,13 @@
         <v>1.727</v>
       </c>
       <c r="F245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
+        <v>2086626.55</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -5306,10 +6044,13 @@
         <v>1.726</v>
       </c>
       <c r="F246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
+        <v>2267663.94</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -5326,10 +6067,13 @@
         <v>1.731</v>
       </c>
       <c r="F247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
+        <v>2337497.6087</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -5346,10 +6090,13 @@
         <v>1.731</v>
       </c>
       <c r="F248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
+        <v>812369</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -5366,10 +6113,13 @@
         <v>1.755</v>
       </c>
       <c r="F249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
+        <v>19879.356</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -5386,10 +6136,13 @@
         <v>1.741</v>
       </c>
       <c r="F250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+        <v>1469004</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -5406,10 +6159,13 @@
         <v>1.741</v>
       </c>
       <c r="F251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
+        <v>2603007.76</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -5426,10 +6182,13 @@
         <v>1.741</v>
       </c>
       <c r="F252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
+        <v>2768402</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -5446,10 +6205,13 @@
         <v>1.741</v>
       </c>
       <c r="F253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
+        <v>44045.4642</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -5466,10 +6228,13 @@
         <v>1.74</v>
       </c>
       <c r="F254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
+        <v>5000</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -5486,10 +6251,13 @@
         <v>1.756</v>
       </c>
       <c r="F255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
+        <v>6620</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -5506,10 +6274,13 @@
         <v>1.756</v>
       </c>
       <c r="F256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
+        <v>0.3986</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -5526,10 +6297,13 @@
         <v>1.76</v>
       </c>
       <c r="F257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
+        <v>10000</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -5546,10 +6320,13 @@
         <v>1.756</v>
       </c>
       <c r="F258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
+        <v>495777.8858</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -5566,10 +6343,13 @@
         <v>1.756</v>
       </c>
       <c r="F259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
+        <v>394248.6669</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -5586,10 +6366,13 @@
         <v>1.756</v>
       </c>
       <c r="F260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
+        <v>60246.9494</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -5606,10 +6389,13 @@
         <v>1.751</v>
       </c>
       <c r="F261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
+        <v>2091790.88</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -5626,10 +6412,13 @@
         <v>1.751</v>
       </c>
       <c r="F262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+        <v>3377446.88</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -5646,10 +6435,13 @@
         <v>1.751</v>
       </c>
       <c r="F263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
+        <v>2089224</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -5666,10 +6458,13 @@
         <v>1.753</v>
       </c>
       <c r="F264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
+        <v>2258435.88</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -5686,10 +6481,13 @@
         <v>1.753</v>
       </c>
       <c r="F265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+        <v>2901560.76</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -5706,10 +6504,13 @@
         <v>1.752</v>
       </c>
       <c r="F266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
+        <v>604057.6102999999</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -5726,10 +6527,13 @@
         <v>1.751</v>
       </c>
       <c r="F267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
+        <v>967564.392</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -5746,10 +6550,13 @@
         <v>1.752</v>
       </c>
       <c r="F268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
+        <v>1144609.9969</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -5766,10 +6573,13 @@
         <v>1.768</v>
       </c>
       <c r="F269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
+        <v>29162.6117</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -5786,10 +6596,13 @@
         <v>1.768</v>
       </c>
       <c r="F270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
+        <v>73923.2977</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -5806,10 +6619,13 @@
         <v>1.768</v>
       </c>
       <c r="F271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
+        <v>22176.9893</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -5826,10 +6642,13 @@
         <v>1.768</v>
       </c>
       <c r="F272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
+        <v>974.7147</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -5846,10 +6665,13 @@
         <v>1.755</v>
       </c>
       <c r="F273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
+        <v>1135366.305</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -5866,10 +6688,13 @@
         <v>1.77</v>
       </c>
       <c r="F274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
+        <v>40786.9253</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -5886,10 +6711,13 @@
         <v>1.77</v>
       </c>
       <c r="F275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
+        <v>8786.3927</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -5906,10 +6734,13 @@
         <v>1.77</v>
       </c>
       <c r="F276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
+        <v>69262.0949</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -5926,10 +6757,13 @@
         <v>1.775</v>
       </c>
       <c r="F277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
+        <v>545353.6693</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -5946,10 +6780,13 @@
         <v>1.77</v>
       </c>
       <c r="F278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
+        <v>4212.4777</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -5966,10 +6803,13 @@
         <v>1.775</v>
       </c>
       <c r="F279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
+        <v>11267.60563380282</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -5986,10 +6826,13 @@
         <v>1.775</v>
       </c>
       <c r="F280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
+        <v>11267.60563380282</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6006,10 +6849,13 @@
         <v>1.775</v>
       </c>
       <c r="F281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
+        <v>55874.4828</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6026,10 +6872,13 @@
         <v>1.775</v>
       </c>
       <c r="F282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
+        <v>391701.3136323944</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6046,10 +6895,13 @@
         <v>1.776</v>
       </c>
       <c r="F283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
+        <v>25589.0604</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6066,10 +6918,13 @@
         <v>1.78</v>
       </c>
       <c r="F284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
+        <v>800000</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6086,10 +6941,13 @@
         <v>1.78</v>
       </c>
       <c r="F285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
+        <v>1121578</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6106,10 +6964,13 @@
         <v>1.78</v>
       </c>
       <c r="F286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
+        <v>1769589.9685</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6126,10 +6987,13 @@
         <v>1.78</v>
       </c>
       <c r="F287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
+        <v>85509.99649999999</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -6146,10 +7010,13 @@
         <v>1.784</v>
       </c>
       <c r="F288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
+        <v>94996.61500078125</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -6166,10 +7033,13 @@
         <v>1.792</v>
       </c>
       <c r="F289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
+        <v>3000</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -6186,10 +7056,13 @@
         <v>1.792</v>
       </c>
       <c r="F290">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
+        <v>640</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -6206,10 +7079,13 @@
         <v>1.792</v>
       </c>
       <c r="F291">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
+        <v>2220.765</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -6226,10 +7102,13 @@
         <v>1.78</v>
       </c>
       <c r="F292">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
+        <v>2220.765</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -6246,10 +7125,13 @@
         <v>1.792</v>
       </c>
       <c r="F293">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
+        <v>6027.76879921875</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -6266,10 +7148,13 @@
         <v>1.781</v>
       </c>
       <c r="F294">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
+        <v>2686137.2758</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -6286,10 +7171,13 @@
         <v>1.781</v>
       </c>
       <c r="F295">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
+        <v>3040472.5734</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -6306,10 +7194,13 @@
         <v>1.782</v>
       </c>
       <c r="F296">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
+        <v>595244</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -6326,10 +7217,13 @@
         <v>1.8</v>
       </c>
       <c r="F297">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
+        <v>10263.4577</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -6346,10 +7240,13 @@
         <v>1.8</v>
       </c>
       <c r="F298">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
+        <v>738684.5005</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -6366,10 +7263,13 @@
         <v>1.8</v>
       </c>
       <c r="F299">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
+        <v>521605.3501</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -6386,10 +7286,13 @@
         <v>1.8</v>
       </c>
       <c r="F300">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
+        <v>199444.8151</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -6406,10 +7309,13 @@
         <v>1.805</v>
       </c>
       <c r="F301">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
+        <v>5000</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -6426,10 +7332,13 @@
         <v>1.8</v>
       </c>
       <c r="F302">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
+        <v>897501.6682</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -6446,10 +7355,13 @@
         <v>1.81</v>
       </c>
       <c r="F303">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
+        <v>230375.417</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -6466,10 +7378,13 @@
         <v>1.81</v>
       </c>
       <c r="F304">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
+        <v>33656.3125</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -6486,10 +7401,13 @@
         <v>1.806</v>
       </c>
       <c r="F305">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
+        <v>152650.3674</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -6506,10 +7424,13 @@
         <v>1.8</v>
       </c>
       <c r="F306">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
+        <v>1218328.9852</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -6526,10 +7447,13 @@
         <v>1.784</v>
       </c>
       <c r="F307">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
+        <v>1675847.88</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -6546,10 +7470,13 @@
         <v>1.784</v>
       </c>
       <c r="F308">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
+        <v>2595035.88</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -6566,10 +7493,13 @@
         <v>1.783</v>
       </c>
       <c r="F309">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
+        <v>3424893.2836</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -6586,10 +7516,13 @@
         <v>1.78</v>
       </c>
       <c r="F310">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
+        <v>1633862.0807</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -6606,10 +7539,13 @@
         <v>1.781</v>
       </c>
       <c r="F311">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
+        <v>1761922.5525</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -6626,10 +7562,13 @@
         <v>1.781</v>
       </c>
       <c r="F312">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
+        <v>449646.3889</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -6646,10 +7585,13 @@
         <v>1.781</v>
       </c>
       <c r="F313">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
+        <v>3560324.861</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -6666,10 +7608,13 @@
         <v>1.782</v>
       </c>
       <c r="F314">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
+        <v>3205065.88</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -6686,10 +7631,13 @@
         <v>1.782</v>
       </c>
       <c r="F315">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
+        <v>1223387.6133</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -6706,10 +7654,13 @@
         <v>1.79</v>
       </c>
       <c r="F316">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
+        <v>653100.503</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -6726,10 +7677,13 @@
         <v>1.81</v>
       </c>
       <c r="F317">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
+        <v>550000</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -6746,10 +7700,13 @@
         <v>1.81</v>
       </c>
       <c r="F318">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
+        <v>3535.8068</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -6766,10 +7723,13 @@
         <v>1.781</v>
       </c>
       <c r="F319">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
+        <v>2783204.88</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -6786,10 +7746,13 @@
         <v>1.781</v>
       </c>
       <c r="F320">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
+        <v>1681837</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -6806,10 +7769,13 @@
         <v>1.78</v>
       </c>
       <c r="F321">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
+        <v>2898533.88</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -6826,10 +7792,13 @@
         <v>1.777</v>
       </c>
       <c r="F322">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
+        <v>536598.1322</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -6846,10 +7815,13 @@
         <v>1.74</v>
       </c>
       <c r="F323">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
+        <v>101317.5888</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -6866,10 +7838,13 @@
         <v>1.741</v>
       </c>
       <c r="F324">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
+        <v>3100180.88</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -6886,10 +7861,13 @@
         <v>1.741</v>
       </c>
       <c r="F325">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6">
+        <v>3592300.88</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -6906,10 +7884,13 @@
         <v>1.761</v>
       </c>
       <c r="F326">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
+        <v>1209218.88</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -6926,10 +7907,13 @@
         <v>1.761</v>
       </c>
       <c r="F327">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
+        <v>408.6222</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -6946,10 +7930,13 @@
         <v>1.767</v>
       </c>
       <c r="F328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
+        <v>31590.3654</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -6966,10 +7953,13 @@
         <v>1.761</v>
       </c>
       <c r="F329">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
+        <v>343.2656</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -6986,10 +7976,13 @@
         <v>1.743</v>
       </c>
       <c r="F330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
+        <v>765023</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -7006,10 +7999,13 @@
         <v>1.742</v>
       </c>
       <c r="F331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
+        <v>2975122.88</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -7026,10 +8022,13 @@
         <v>1.742</v>
       </c>
       <c r="F332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
+        <v>3617217.88</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -7046,10 +8045,13 @@
         <v>1.743</v>
       </c>
       <c r="F333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
+        <v>310.5577</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -7066,10 +8068,13 @@
         <v>1.744</v>
       </c>
       <c r="F334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
+        <v>1630327.88</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -7086,10 +8091,13 @@
         <v>1.744</v>
       </c>
       <c r="F335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
+        <v>3226849.88</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -7106,10 +8114,13 @@
         <v>1.744</v>
       </c>
       <c r="F336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
+        <v>2280162.76</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -7126,10 +8137,13 @@
         <v>1.744</v>
       </c>
       <c r="F337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
+        <v>470624</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -7146,10 +8160,13 @@
         <v>1.742</v>
       </c>
       <c r="F338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
+        <v>46302.4419</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -7166,10 +8183,13 @@
         <v>1.743</v>
       </c>
       <c r="F339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
+        <v>919195</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -7186,10 +8206,13 @@
         <v>1.743</v>
       </c>
       <c r="F340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
+        <v>2429754.76</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -7206,10 +8229,13 @@
         <v>1.741</v>
       </c>
       <c r="F341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
+        <v>1552819.5553</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -7226,10 +8252,13 @@
         <v>1.741</v>
       </c>
       <c r="F342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
+        <v>2297826.88</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -7246,10 +8275,13 @@
         <v>1.778</v>
       </c>
       <c r="F343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
+        <v>24627.28019494098</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -7266,10 +8298,13 @@
         <v>1.741</v>
       </c>
       <c r="F344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
+        <v>2076089.57</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -7286,10 +8321,13 @@
         <v>1.735</v>
       </c>
       <c r="F345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
+        <v>1986338.2954</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -7306,10 +8344,13 @@
         <v>1.751</v>
       </c>
       <c r="F346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
+        <v>2458150</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -7326,10 +8367,13 @@
         <v>1.751</v>
       </c>
       <c r="F347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
+        <v>740571.88</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -7346,10 +8390,13 @@
         <v>1.752</v>
       </c>
       <c r="F348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
+        <v>2907456.88</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -7366,10 +8413,13 @@
         <v>1.752</v>
       </c>
       <c r="F349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
+        <v>2984044.88</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -7386,10 +8436,13 @@
         <v>1.752</v>
       </c>
       <c r="F350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
+        <v>2027832.88</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -7406,10 +8459,13 @@
         <v>1.754</v>
       </c>
       <c r="F351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
+        <v>97085.5678</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -7426,10 +8482,13 @@
         <v>1.754</v>
       </c>
       <c r="F352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
+        <v>100000</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -7446,10 +8505,13 @@
         <v>1.754</v>
       </c>
       <c r="F353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6">
+        <v>1009.7049</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -7466,10 +8528,13 @@
         <v>1.754</v>
       </c>
       <c r="F354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6">
+        <v>300</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -7486,10 +8551,13 @@
         <v>1.752</v>
       </c>
       <c r="F355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
+        <v>300</v>
+      </c>
+      <c r="G355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -7506,10 +8574,13 @@
         <v>1.754</v>
       </c>
       <c r="F356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6">
+        <v>10000</v>
+      </c>
+      <c r="G356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -7526,10 +8597,13 @@
         <v>1.753</v>
       </c>
       <c r="F357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6">
+        <v>810308</v>
+      </c>
+      <c r="G357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -7546,10 +8620,13 @@
         <v>1.776</v>
       </c>
       <c r="F358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6">
+        <v>5011.261261261261</v>
+      </c>
+      <c r="G358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -7566,10 +8643,13 @@
         <v>1.776</v>
       </c>
       <c r="F359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6">
+        <v>1684.121621621622</v>
+      </c>
+      <c r="G359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -7586,10 +8666,13 @@
         <v>1.776</v>
       </c>
       <c r="F360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
+        <v>365087.3969</v>
+      </c>
+      <c r="G360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -7606,10 +8689,13 @@
         <v>1.776</v>
       </c>
       <c r="F361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
+        <v>1700</v>
+      </c>
+      <c r="G361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -7626,10 +8712,13 @@
         <v>1.765</v>
       </c>
       <c r="F362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
+        <v>20437.6072</v>
+      </c>
+      <c r="G362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -7646,10 +8735,13 @@
         <v>1.764</v>
       </c>
       <c r="F363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
+        <v>28257.7903</v>
+      </c>
+      <c r="G363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -7666,10 +8758,13 @@
         <v>1.755</v>
       </c>
       <c r="F364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
+        <v>17317.2147</v>
+      </c>
+      <c r="G364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -7686,10 +8781,13 @@
         <v>1.752</v>
       </c>
       <c r="F365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
+        <v>2172902</v>
+      </c>
+      <c r="G365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -7706,10 +8804,13 @@
         <v>1.761</v>
       </c>
       <c r="F366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6">
+        <v>1654478.76</v>
+      </c>
+      <c r="G366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -7726,10 +8827,13 @@
         <v>1.776</v>
       </c>
       <c r="F367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6">
+        <v>957.0667</v>
+      </c>
+      <c r="G367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -7746,10 +8850,13 @@
         <v>1.751</v>
       </c>
       <c r="F368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6">
+        <v>1579423.8692</v>
+      </c>
+      <c r="G368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -7766,10 +8873,13 @@
         <v>1.761</v>
       </c>
       <c r="F369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
+        <v>791964.3456999999</v>
+      </c>
+      <c r="G369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -7786,10 +8896,13 @@
         <v>1.776</v>
       </c>
       <c r="F370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
+        <v>27300.7236</v>
+      </c>
+      <c r="G370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -7806,10 +8919,13 @@
         <v>1.776</v>
       </c>
       <c r="F371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6">
+        <v>2411.6805</v>
+      </c>
+      <c r="G371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -7826,10 +8942,13 @@
         <v>1.776</v>
       </c>
       <c r="F372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6">
+        <v>14880.5101</v>
+      </c>
+      <c r="G372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -7846,10 +8965,13 @@
         <v>1.775</v>
       </c>
       <c r="F373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
+        <v>3049.4879</v>
+      </c>
+      <c r="G373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -7866,10 +8988,13 @@
         <v>1.746</v>
       </c>
       <c r="F374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6">
+        <v>678718</v>
+      </c>
+      <c r="G374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -7886,10 +9011,13 @@
         <v>1.77</v>
       </c>
       <c r="F375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6">
+        <v>27473.8176</v>
+      </c>
+      <c r="G375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -7906,10 +9034,13 @@
         <v>1.77</v>
       </c>
       <c r="F376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6">
+        <v>69630.3903</v>
+      </c>
+      <c r="G376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -7926,10 +9057,13 @@
         <v>1.772</v>
       </c>
       <c r="F377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6">
+        <v>29792.7359</v>
+      </c>
+      <c r="G377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -7946,10 +9080,13 @@
         <v>1.762</v>
       </c>
       <c r="F378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6">
+        <v>162034.8301</v>
+      </c>
+      <c r="G378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -7966,10 +9103,13 @@
         <v>1.761</v>
       </c>
       <c r="F379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6">
+        <v>8350</v>
+      </c>
+      <c r="G379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -7986,10 +9126,13 @@
         <v>1.761</v>
       </c>
       <c r="F380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6">
+        <v>20238.5724</v>
+      </c>
+      <c r="G380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -8006,10 +9149,13 @@
         <v>1.761</v>
       </c>
       <c r="F381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6">
+        <v>46196.9237</v>
+      </c>
+      <c r="G381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -8026,10 +9172,13 @@
         <v>1.762</v>
       </c>
       <c r="F382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6">
+        <v>572.6829</v>
+      </c>
+      <c r="G382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -8046,10 +9195,13 @@
         <v>1.75</v>
       </c>
       <c r="F383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6">
+        <v>4925.6635</v>
+      </c>
+      <c r="G383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -8066,10 +9218,13 @@
         <v>1.762</v>
       </c>
       <c r="F384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6">
+        <v>141813.9364</v>
+      </c>
+      <c r="G384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -8086,10 +9241,13 @@
         <v>1.759</v>
       </c>
       <c r="F385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6">
+        <v>113417.7064</v>
+      </c>
+      <c r="G385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -8106,10 +9264,13 @@
         <v>1.75</v>
       </c>
       <c r="F386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6">
+        <v>2072.7972</v>
+      </c>
+      <c r="G386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -8126,10 +9287,13 @@
         <v>1.759</v>
       </c>
       <c r="F387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6">
+        <v>285</v>
+      </c>
+      <c r="G387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -8146,10 +9310,13 @@
         <v>1.759</v>
       </c>
       <c r="F388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6">
+        <v>40371.7196</v>
+      </c>
+      <c r="G388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -8166,10 +9333,13 @@
         <v>1.759</v>
       </c>
       <c r="F389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6">
+        <v>10297.8052</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -8186,10 +9356,13 @@
         <v>1.759</v>
       </c>
       <c r="F390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6">
+        <v>17609.2468</v>
+      </c>
+      <c r="G390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -8206,10 +9379,13 @@
         <v>1.759</v>
       </c>
       <c r="F391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6">
+        <v>568.5048322910744</v>
+      </c>
+      <c r="G391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -8226,10 +9402,13 @@
         <v>1.75</v>
       </c>
       <c r="F392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6">
+        <v>62666.1723</v>
+      </c>
+      <c r="G392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -8246,10 +9425,13 @@
         <v>1.75</v>
       </c>
       <c r="F393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6">
+        <v>28500</v>
+      </c>
+      <c r="G393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -8266,10 +9448,13 @@
         <v>1.747</v>
       </c>
       <c r="F394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6">
+        <v>56561.4542</v>
+      </c>
+      <c r="G394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -8286,10 +9471,13 @@
         <v>1.745</v>
       </c>
       <c r="F395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6">
+        <v>37462.6148</v>
+      </c>
+      <c r="G395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -8306,10 +9494,13 @@
         <v>1.75</v>
       </c>
       <c r="F396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6">
+        <v>80000</v>
+      </c>
+      <c r="G396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -8326,10 +9517,13 @@
         <v>1.74</v>
       </c>
       <c r="F397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6">
+        <v>192387.8446</v>
+      </c>
+      <c r="G397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -8346,10 +9540,13 @@
         <v>1.75</v>
       </c>
       <c r="F398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6">
+        <v>4293.142857142857</v>
+      </c>
+      <c r="G398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -8366,10 +9563,13 @@
         <v>1.75</v>
       </c>
       <c r="F399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6">
+        <v>5968.835</v>
+      </c>
+      <c r="G399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -8386,10 +9586,13 @@
         <v>1.75</v>
       </c>
       <c r="F400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6">
+        <v>5969.4079</v>
+      </c>
+      <c r="G400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -8406,10 +9609,13 @@
         <v>1.75</v>
       </c>
       <c r="F401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6">
+        <v>13850.5627</v>
+      </c>
+      <c r="G401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -8426,10 +9632,13 @@
         <v>1.75</v>
       </c>
       <c r="F402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6">
+        <v>33781.5209</v>
+      </c>
+      <c r="G402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -8446,10 +9655,13 @@
         <v>1.75</v>
       </c>
       <c r="F403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6">
+        <v>31251.4106</v>
+      </c>
+      <c r="G403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -8466,10 +9678,13 @@
         <v>1.745</v>
       </c>
       <c r="F404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6">
+        <v>9459.766</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -8486,10 +9701,13 @@
         <v>1.745</v>
       </c>
       <c r="F405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6">
+        <v>55485.327</v>
+      </c>
+      <c r="G405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -8506,10 +9724,13 @@
         <v>1.745</v>
       </c>
       <c r="F406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6">
+        <v>1358021.3671</v>
+      </c>
+      <c r="G406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -8526,10 +9747,13 @@
         <v>1.745</v>
       </c>
       <c r="F407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6">
+        <v>38779.2405</v>
+      </c>
+      <c r="G407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -8546,10 +9770,13 @@
         <v>1.749</v>
       </c>
       <c r="F408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6">
+        <v>286</v>
+      </c>
+      <c r="G408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -8566,10 +9793,13 @@
         <v>1.749</v>
       </c>
       <c r="F409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6">
+        <v>28450.685</v>
+      </c>
+      <c r="G409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -8586,10 +9816,13 @@
         <v>1.745</v>
       </c>
       <c r="F410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6">
+        <v>398092.7883</v>
+      </c>
+      <c r="G410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -8606,10 +9839,13 @@
         <v>1.751</v>
       </c>
       <c r="F411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6">
+        <v>1100281</v>
+      </c>
+      <c r="G411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -8626,10 +9862,13 @@
         <v>1.751</v>
       </c>
       <c r="F412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6">
+        <v>3396801.88</v>
+      </c>
+      <c r="G412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -8646,10 +9885,13 @@
         <v>1.751</v>
       </c>
       <c r="F413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6">
+        <v>2814335.76</v>
+      </c>
+      <c r="G413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -8666,10 +9908,13 @@
         <v>1.751</v>
       </c>
       <c r="F414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:6">
+        <v>670088</v>
+      </c>
+      <c r="G414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -8686,10 +9931,13 @@
         <v>1.769</v>
       </c>
       <c r="F415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:6">
+        <v>349.5667</v>
+      </c>
+      <c r="G415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -8706,10 +9954,13 @@
         <v>1.746</v>
       </c>
       <c r="F416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6">
+        <v>590000</v>
+      </c>
+      <c r="G416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -8726,10 +9977,13 @@
         <v>1.737</v>
       </c>
       <c r="F417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:6">
+        <v>431650.3985</v>
+      </c>
+      <c r="G417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -8746,10 +10000,13 @@
         <v>1.766</v>
       </c>
       <c r="F418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:6">
+        <v>1261.3704</v>
+      </c>
+      <c r="G418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -8766,10 +10023,13 @@
         <v>1.75</v>
       </c>
       <c r="F419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:6">
+        <v>93324.70940000001</v>
+      </c>
+      <c r="G419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -8786,10 +10046,13 @@
         <v>1.738</v>
       </c>
       <c r="F420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:6">
+        <v>2088390.88</v>
+      </c>
+      <c r="G420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -8806,10 +10069,13 @@
         <v>1.738</v>
       </c>
       <c r="F421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:6">
+        <v>3342827</v>
+      </c>
+      <c r="G421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -8826,10 +10092,13 @@
         <v>1.738</v>
       </c>
       <c r="F422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:6">
+        <v>2419584.76</v>
+      </c>
+      <c r="G422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -8846,10 +10115,13 @@
         <v>1.76</v>
       </c>
       <c r="F423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:6">
+        <v>285</v>
+      </c>
+      <c r="G423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -8866,10 +10138,13 @@
         <v>1.738</v>
       </c>
       <c r="F424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:6">
+        <v>32885.142</v>
+      </c>
+      <c r="G424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -8886,10 +10161,13 @@
         <v>1.739</v>
       </c>
       <c r="F425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6">
+        <v>1495421.88</v>
+      </c>
+      <c r="G425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -8906,10 +10184,13 @@
         <v>1.739</v>
       </c>
       <c r="F426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6">
+        <v>3285393.88</v>
+      </c>
+      <c r="G426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -8926,10 +10207,13 @@
         <v>1.739</v>
       </c>
       <c r="F427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:6">
+        <v>2652999.76</v>
+      </c>
+      <c r="G427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -8946,10 +10230,13 @@
         <v>1.74</v>
       </c>
       <c r="F428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6">
+        <v>789275</v>
+      </c>
+      <c r="G428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -8966,10 +10253,13 @@
         <v>1.76</v>
       </c>
       <c r="F429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6">
+        <v>285</v>
+      </c>
+      <c r="G429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -8986,10 +10276,13 @@
         <v>1.76</v>
       </c>
       <c r="F430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:6">
+        <v>52961.932</v>
+      </c>
+      <c r="G430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -9006,10 +10299,13 @@
         <v>1.766</v>
       </c>
       <c r="F431">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6">
+        <v>298182.9514</v>
+      </c>
+      <c r="G431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -9026,10 +10322,13 @@
         <v>1.766</v>
       </c>
       <c r="F432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6">
+        <v>50570.9649</v>
+      </c>
+      <c r="G432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -9046,10 +10345,13 @@
         <v>1.766</v>
       </c>
       <c r="F433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6">
+        <v>84910.3043</v>
+      </c>
+      <c r="G433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -9066,10 +10368,13 @@
         <v>1.766</v>
       </c>
       <c r="F434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:6">
+        <v>120568.3494</v>
+      </c>
+      <c r="G434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -9086,10 +10391,13 @@
         <v>1.751</v>
       </c>
       <c r="F435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:6">
+        <v>3199065.88</v>
+      </c>
+      <c r="G435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -9106,10 +10414,13 @@
         <v>1.752</v>
       </c>
       <c r="F436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6">
+        <v>3393384.9799</v>
+      </c>
+      <c r="G436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -9126,10 +10437,13 @@
         <v>1.752</v>
       </c>
       <c r="F437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6">
+        <v>733243.88</v>
+      </c>
+      <c r="G437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -9146,10 +10460,13 @@
         <v>1.75</v>
       </c>
       <c r="F438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6">
+        <v>226539.9963</v>
+      </c>
+      <c r="G438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -9166,10 +10483,13 @@
         <v>1.76</v>
       </c>
       <c r="F439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6">
+        <v>285</v>
+      </c>
+      <c r="G439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -9186,10 +10506,13 @@
         <v>1.76</v>
       </c>
       <c r="F440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6">
+        <v>169206.8253</v>
+      </c>
+      <c r="G440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -9206,10 +10529,13 @@
         <v>1.753</v>
       </c>
       <c r="F441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6">
+        <v>2668300.5152</v>
+      </c>
+      <c r="G441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -9226,10 +10552,13 @@
         <v>1.753</v>
       </c>
       <c r="F442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6">
+        <v>3047081.2448</v>
+      </c>
+      <c r="G442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -9246,10 +10575,13 @@
         <v>1.753</v>
       </c>
       <c r="F443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6">
+        <v>2087374.76</v>
+      </c>
+      <c r="G443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -9266,10 +10598,13 @@
         <v>1.751</v>
       </c>
       <c r="F444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6">
+        <v>42564.824</v>
+      </c>
+      <c r="G444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -9286,10 +10621,13 @@
         <v>1.736</v>
       </c>
       <c r="F445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:6">
+        <v>2034751.3849</v>
+      </c>
+      <c r="G445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -9306,10 +10644,13 @@
         <v>1.735</v>
       </c>
       <c r="F446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:6">
+        <v>1806303.8105</v>
+      </c>
+      <c r="G446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -9326,10 +10667,13 @@
         <v>1.735</v>
       </c>
       <c r="F447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:6">
+        <v>207060.4312</v>
+      </c>
+      <c r="G447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -9346,10 +10690,13 @@
         <v>1.751</v>
       </c>
       <c r="F448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:6">
+        <v>2971388.764</v>
+      </c>
+      <c r="G448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -9366,10 +10713,13 @@
         <v>1.736</v>
       </c>
       <c r="F449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:6">
+        <v>2737924.76</v>
+      </c>
+      <c r="G449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -9386,10 +10736,13 @@
         <v>1.737</v>
       </c>
       <c r="F450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:6">
+        <v>1715111</v>
+      </c>
+      <c r="G450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -9406,10 +10759,13 @@
         <v>1.758</v>
       </c>
       <c r="F451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:6">
+        <v>286</v>
+      </c>
+      <c r="G451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -9426,10 +10782,13 @@
         <v>1.758</v>
       </c>
       <c r="F452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:6">
+        <v>100000</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -9446,10 +10805,13 @@
         <v>1.741</v>
       </c>
       <c r="F453">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6">
+        <v>295.625</v>
+      </c>
+      <c r="G453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -9466,10 +10828,13 @@
         <v>1.741</v>
       </c>
       <c r="F454">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:6">
+        <v>454.7377</v>
+      </c>
+      <c r="G454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -9486,10 +10851,13 @@
         <v>1.74</v>
       </c>
       <c r="F455">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:6">
+        <v>621806.3356</v>
+      </c>
+      <c r="G455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -9506,10 +10874,13 @@
         <v>1.742</v>
       </c>
       <c r="F456">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6">
+        <v>2511655.68</v>
+      </c>
+      <c r="G456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -9526,10 +10897,13 @@
         <v>1.743</v>
       </c>
       <c r="F457">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:6">
+        <v>1535756.1124</v>
+      </c>
+      <c r="G457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -9546,10 +10920,13 @@
         <v>1.756</v>
       </c>
       <c r="F458">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:6">
+        <v>6493.3903</v>
+      </c>
+      <c r="G458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -9566,10 +10943,13 @@
         <v>1.755</v>
       </c>
       <c r="F459">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460" spans="1:6">
+        <v>5869.0489</v>
+      </c>
+      <c r="G459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -9586,10 +10966,13 @@
         <v>1.758</v>
       </c>
       <c r="F460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:6">
+        <v>319798.5023</v>
+      </c>
+      <c r="G460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -9606,10 +10989,13 @@
         <v>1.759</v>
       </c>
       <c r="F461">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:6">
+        <v>318012.1559</v>
+      </c>
+      <c r="G461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -9626,10 +11012,13 @@
         <v>1.76</v>
       </c>
       <c r="F462">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:6">
+        <v>340283.5259</v>
+      </c>
+      <c r="G462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -9646,10 +11035,13 @@
         <v>1.751</v>
       </c>
       <c r="F463">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:6">
+        <v>985997</v>
+      </c>
+      <c r="G463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -9666,10 +11058,13 @@
         <v>1.746</v>
       </c>
       <c r="F464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6">
+        <v>2135916.88</v>
+      </c>
+      <c r="G464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -9686,10 +11081,13 @@
         <v>1.771</v>
       </c>
       <c r="F465">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6">
+        <v>537886.2661</v>
+      </c>
+      <c r="G465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -9706,10 +11104,13 @@
         <v>1.771</v>
       </c>
       <c r="F466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6">
+        <v>25000</v>
+      </c>
+      <c r="G466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -9726,10 +11127,13 @@
         <v>1.752</v>
       </c>
       <c r="F467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:6">
+        <v>2405194.6003</v>
+      </c>
+      <c r="G467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -9746,10 +11150,13 @@
         <v>1.752</v>
       </c>
       <c r="F468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:6">
+        <v>2940531.88</v>
+      </c>
+      <c r="G468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -9766,10 +11173,13 @@
         <v>1.752</v>
       </c>
       <c r="F469">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:6">
+        <v>3334693.88</v>
+      </c>
+      <c r="G469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -9786,10 +11196,13 @@
         <v>1.752</v>
       </c>
       <c r="F470">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="1:6">
+        <v>1194053.88</v>
+      </c>
+      <c r="G470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -9806,10 +11219,13 @@
         <v>1.749</v>
       </c>
       <c r="F471">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:6">
+        <v>2228232</v>
+      </c>
+      <c r="G471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -9826,10 +11242,13 @@
         <v>1.748</v>
       </c>
       <c r="F472">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="1:6">
+        <v>3120910.76</v>
+      </c>
+      <c r="G472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -9846,10 +11265,13 @@
         <v>1.75</v>
       </c>
       <c r="F473">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:6">
+        <v>2217544</v>
+      </c>
+      <c r="G473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -9866,10 +11288,13 @@
         <v>1.77</v>
       </c>
       <c r="F474">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:6">
+        <v>2000</v>
+      </c>
+      <c r="G474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -9886,10 +11311,13 @@
         <v>1.77</v>
       </c>
       <c r="F475">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:6">
+        <v>283</v>
+      </c>
+      <c r="G475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -9906,10 +11334,13 @@
         <v>1.753</v>
       </c>
       <c r="F476">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="1:6">
+        <v>232259.9451</v>
+      </c>
+      <c r="G476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -9926,10 +11357,13 @@
         <v>1.756</v>
       </c>
       <c r="F477">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="1:6">
+        <v>1519812.88</v>
+      </c>
+      <c r="G477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -9946,10 +11380,13 @@
         <v>1.761</v>
       </c>
       <c r="F478">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="1:6">
+        <v>3794445.9163</v>
+      </c>
+      <c r="G478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -9966,10 +11403,13 @@
         <v>1.762</v>
       </c>
       <c r="F479">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:6">
+        <v>1362070.76</v>
+      </c>
+      <c r="G479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -9986,10 +11426,13 @@
         <v>1.776</v>
       </c>
       <c r="F480">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:6">
+        <v>7624.7388</v>
+      </c>
+      <c r="G480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -10006,10 +11449,13 @@
         <v>1.776</v>
       </c>
       <c r="F481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:6">
+        <v>23605.7266</v>
+      </c>
+      <c r="G481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -10026,10 +11472,13 @@
         <v>1.776</v>
       </c>
       <c r="F482">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:6">
+        <v>35880.5102</v>
+      </c>
+      <c r="G482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -10046,10 +11495,13 @@
         <v>1.769</v>
       </c>
       <c r="F483">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="1:6">
+        <v>283.0005</v>
+      </c>
+      <c r="G483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -10066,10 +11518,13 @@
         <v>1.761</v>
       </c>
       <c r="F484">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="1:6">
+        <v>406642.0241</v>
+      </c>
+      <c r="G484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -10086,10 +11541,13 @@
         <v>1.762</v>
       </c>
       <c r="F485">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:6">
+        <v>781222</v>
+      </c>
+      <c r="G485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -10106,10 +11564,13 @@
         <v>1.762</v>
       </c>
       <c r="F486">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487" spans="1:6">
+        <v>3175501.88</v>
+      </c>
+      <c r="G486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -10126,10 +11587,13 @@
         <v>1.762</v>
       </c>
       <c r="F487">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="1:6">
+        <v>2811735.88</v>
+      </c>
+      <c r="G487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -10146,10 +11610,13 @@
         <v>1.777</v>
       </c>
       <c r="F488">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="1:6">
+        <v>1000</v>
+      </c>
+      <c r="G488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -10166,10 +11633,13 @@
         <v>1.776</v>
       </c>
       <c r="F489">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="1:6">
+        <v>9038.7693</v>
+      </c>
+      <c r="G489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -10186,10 +11656,13 @@
         <v>1.775</v>
       </c>
       <c r="F490">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="1:6">
+        <v>22891.4571</v>
+      </c>
+      <c r="G490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -10206,10 +11679,13 @@
         <v>1.765</v>
       </c>
       <c r="F491">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="1:6">
+        <v>12920.9641</v>
+      </c>
+      <c r="G491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -10226,10 +11702,13 @@
         <v>1.765</v>
       </c>
       <c r="F492">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="1:6">
+        <v>39926.5764</v>
+      </c>
+      <c r="G492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -10246,10 +11725,13 @@
         <v>1.765</v>
       </c>
       <c r="F493">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494" spans="1:6">
+        <v>11085.3469</v>
+      </c>
+      <c r="G493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -10266,10 +11748,13 @@
         <v>1.765</v>
       </c>
       <c r="F494">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="1:6">
+        <v>135660.0164</v>
+      </c>
+      <c r="G494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -10286,10 +11771,13 @@
         <v>1.775</v>
       </c>
       <c r="F495">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="1:6">
+        <v>2824.2717</v>
+      </c>
+      <c r="G495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -10306,10 +11794,13 @@
         <v>1.774</v>
       </c>
       <c r="F496">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="1:6">
+        <v>144805.3372</v>
+      </c>
+      <c r="G496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -10326,10 +11817,13 @@
         <v>1.773</v>
       </c>
       <c r="F497">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:6">
+        <v>283.0005</v>
+      </c>
+      <c r="G497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -10346,10 +11840,13 @@
         <v>1.773</v>
       </c>
       <c r="F498">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="1:6">
+        <v>5479.283</v>
+      </c>
+      <c r="G498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -10366,10 +11863,13 @@
         <v>1.772</v>
       </c>
       <c r="F499">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="1:6">
+        <v>61863.64083476298</v>
+      </c>
+      <c r="G499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -10386,10 +11886,13 @@
         <v>1.771</v>
       </c>
       <c r="F500">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:6">
+        <v>2692.1572</v>
+      </c>
+      <c r="G500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -10406,10 +11909,13 @@
         <v>1.775</v>
       </c>
       <c r="F501">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="1:6">
+        <v>303974.461</v>
+      </c>
+      <c r="G501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -10426,10 +11932,13 @@
         <v>1.775</v>
       </c>
       <c r="F502">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="1:6">
+        <v>30000</v>
+      </c>
+      <c r="G502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -10446,10 +11955,13 @@
         <v>1.775</v>
       </c>
       <c r="F503">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:6">
+        <v>41898.8237</v>
+      </c>
+      <c r="G503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -10466,10 +11978,13 @@
         <v>1.775</v>
       </c>
       <c r="F504">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:6">
+        <v>3597.0171</v>
+      </c>
+      <c r="G504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -10486,10 +12001,13 @@
         <v>1.776</v>
       </c>
       <c r="F505">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="1:6">
+        <v>100000</v>
+      </c>
+      <c r="G505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -10506,10 +12024,13 @@
         <v>1.775</v>
       </c>
       <c r="F506">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="1:6">
+        <v>215281.4024</v>
+      </c>
+      <c r="G506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -10526,10 +12047,13 @@
         <v>1.776</v>
       </c>
       <c r="F507">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="1:6">
+        <v>155672.9628</v>
+      </c>
+      <c r="G507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -10546,10 +12070,13 @@
         <v>1.776</v>
       </c>
       <c r="F508">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="1:6">
+        <v>53576.6273</v>
+      </c>
+      <c r="G508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -10566,10 +12093,13 @@
         <v>1.778</v>
       </c>
       <c r="F509">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="1:6">
+        <v>4617.4479</v>
+      </c>
+      <c r="G509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -10586,10 +12116,13 @@
         <v>1.778</v>
       </c>
       <c r="F510">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511" spans="1:6">
+        <v>7554.2442</v>
+      </c>
+      <c r="G510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -10606,10 +12139,13 @@
         <v>1.778</v>
       </c>
       <c r="F511">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512" spans="1:6">
+        <v>20323.8207</v>
+      </c>
+      <c r="G511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -10626,7 +12162,10 @@
         <v>1.779</v>
       </c>
       <c r="F512">
-        <v>2</v>
+        <v>490.0462</v>
+      </c>
+      <c r="G512">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
